--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 4.xlsx_with_dialog_acts.xlsx
@@ -1011,12 +1011,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1473,12 +1473,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1893,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2811,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3273,12 +3273,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
